--- a/data/03.marzo/listado_marzo_con_pdf.xlsx
+++ b/data/03.marzo/listado_marzo_con_pdf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="570">
   <si>
     <t>NºOrden</t>
   </si>
@@ -153,6 +153,9 @@
     <t>10,0</t>
   </si>
   <si>
+    <t>HERME PLUS, S.L 205909.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">   2202416</t>
   </si>
   <si>
@@ -222,6 +225,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>ROBERTO MONTES CALVO 000013.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">    000013</t>
   </si>
   <si>
@@ -891,6 +897,9 @@
     <t xml:space="preserve">  44222715</t>
   </si>
   <si>
+    <t>TED GIFTED _25257_-_HARRY_1.pdf</t>
+  </si>
+  <si>
     <t>0642/03/22</t>
   </si>
   <si>
@@ -900,6 +909,9 @@
     <t>PL7831664350</t>
   </si>
   <si>
+    <t>TED GIFTED_25260_-_HARRY_2__300_.pdf</t>
+  </si>
+  <si>
     <t>0643/03/22</t>
   </si>
   <si>
@@ -1056,6 +1068,9 @@
     <t xml:space="preserve">   FV04787</t>
   </si>
   <si>
+    <t>TROFEOS BALBINO FA55-22.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">     55/22</t>
   </si>
   <si>
@@ -1122,6 +1137,9 @@
     <t>PF Concept Spain, S.A.U.</t>
   </si>
   <si>
+    <t>SOL_S 2203FV05072.PDF</t>
+  </si>
+  <si>
     <t xml:space="preserve">   FV05072</t>
   </si>
   <si>
@@ -1143,6 +1161,9 @@
     <t>2203123362</t>
   </si>
   <si>
+    <t>DECTAHLON 22-0005-0001041715.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">   1041715</t>
   </si>
   <si>
@@ -1449,6 +1470,9 @@
     <t>B27827849</t>
   </si>
   <si>
+    <t>SHEN ZHEN AIDIYI RZG-ES-202204002.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 202204002</t>
   </si>
   <si>
@@ -1647,6 +1671,9 @@
     <t xml:space="preserve">  44223205</t>
   </si>
   <si>
+    <t>JN BORDADOS FAC-FR22-542-156805.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">       542</t>
   </si>
   <si>
@@ -1680,6 +1707,9 @@
     <t>GRAMMA SERIGRAFIA E IMAGEN SL</t>
   </si>
   <si>
+    <t>MAAM FACTURA 2022015448.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22/015448</t>
   </si>
   <si>
@@ -1690,6 +1720,9 @@
   </si>
   <si>
     <t>MAAN ENVIOS, S.L.</t>
+  </si>
+  <si>
+    <t>MAAM FACTURA 2022015449.pdf</t>
   </si>
   <si>
     <t xml:space="preserve"> 22/015449</t>
@@ -2367,23 +2400,26 @@
       <c r="A9" s="4">
         <v>225.0</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="4">
         <v>850.0</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="I9" s="12">
         <v>90.18</v>
@@ -2406,13 +2442,13 @@
         <v>226.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4">
         <v>854.0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>39</v>
@@ -2447,25 +2483,25 @@
         <v>227.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4">
         <v>855.0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I11" s="12">
         <v>79.06</v>
@@ -2488,25 +2524,25 @@
         <v>228.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4">
         <v>887.0</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" s="12">
         <v>79.0</v>
@@ -2529,13 +2565,13 @@
         <v>229.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4">
         <v>889.0</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>39</v>
@@ -2570,31 +2606,31 @@
         <v>230.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4">
         <v>905.0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" s="12">
         <v>675.0</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K14" s="12">
         <v>0.0</v>
@@ -2610,23 +2646,26 @@
       <c r="A15" s="4">
         <v>231.0</v>
       </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C15" s="4">
         <v>1561.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I15" s="12">
         <v>2832.73</v>
@@ -2649,16 +2688,16 @@
         <v>232.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4">
         <v>888.0</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>42</v>
@@ -2687,25 +2726,25 @@
         <v>233.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4">
         <v>890.0</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I17" s="12">
         <v>-16.0</v>
@@ -2728,16 +2767,16 @@
         <v>234.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4">
         <v>891.0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>25</v>
@@ -2769,25 +2808,25 @@
         <v>235.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4">
         <v>906.0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I19" s="12">
         <v>57.67</v>
@@ -2810,16 +2849,16 @@
         <v>236.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" s="4">
         <v>907.0</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
@@ -2851,25 +2890,25 @@
         <v>237.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4">
         <v>908.0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I21" s="12">
         <v>187.9</v>
@@ -2892,25 +2931,25 @@
         <v>238.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4">
         <v>922.0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I22" s="12">
         <v>4.93</v>
@@ -2933,25 +2972,25 @@
         <v>239.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C23" s="4">
         <v>945.0</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I23" s="12">
         <v>58.97</v>
@@ -2974,16 +3013,16 @@
         <v>240.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4">
         <v>918.0</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>21</v>
@@ -3015,25 +3054,25 @@
         <v>241.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="4">
         <v>919.0</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I25" s="12">
         <v>112.96</v>
@@ -3056,16 +3095,16 @@
         <v>242.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C26" s="4">
         <v>924.0</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>16</v>
@@ -3097,19 +3136,19 @@
         <v>243.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C27" s="4">
         <v>942.0</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>43</v>
@@ -3135,16 +3174,16 @@
         <v>244.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C28" s="4">
         <v>947.0</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>30</v>
@@ -3176,25 +3215,25 @@
         <v>245.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29" s="4">
         <v>1022.0</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I29" s="12">
         <v>19.62</v>
@@ -3217,25 +3256,25 @@
         <v>246.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4">
         <v>941.0</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I30" s="12">
         <v>45.6</v>
@@ -3258,19 +3297,19 @@
         <v>247.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4">
         <v>943.0</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>43</v>
@@ -3296,25 +3335,25 @@
         <v>248.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C32" s="4">
         <v>948.0</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I32" s="12">
         <v>67.84</v>
@@ -3337,25 +3376,25 @@
         <v>249.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4">
         <v>949.0</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="I33" s="12">
         <v>70.76</v>
@@ -3378,25 +3417,25 @@
         <v>250.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C34" s="4">
         <v>950.0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I34" s="12">
         <v>97.84</v>
@@ -3419,16 +3458,16 @@
         <v>251.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C35" s="4">
         <v>992.0</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>30</v>
@@ -3460,25 +3499,25 @@
         <v>252.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4">
         <v>994.0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I36" s="12">
         <v>1188.76</v>
@@ -3501,25 +3540,25 @@
         <v>253.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C37" s="4">
         <v>996.0</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I37" s="12">
         <v>730.74</v>
@@ -3542,16 +3581,16 @@
         <v>254.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C38" s="4">
         <v>944.0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>21</v>
@@ -3583,25 +3622,25 @@
         <v>255.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C39" s="4">
         <v>990.0</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I39" s="12">
         <v>585.0</v>
@@ -3624,16 +3663,16 @@
         <v>256.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C40" s="4">
         <v>993.0</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>30</v>
@@ -3665,16 +3704,16 @@
         <v>257.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C41" s="4">
         <v>995.0</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>25</v>
@@ -3706,25 +3745,25 @@
         <v>258.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C42" s="4">
         <v>1005.0</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I42" s="12">
         <v>115.69</v>
@@ -3747,19 +3786,19 @@
         <v>259.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C43" s="4">
         <v>1409.0</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>43</v>
@@ -3785,16 +3824,16 @@
         <v>260.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4">
         <v>991.0</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>21</v>
@@ -3826,16 +3865,16 @@
         <v>261.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C45" s="4">
         <v>1006.0</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -3864,25 +3903,25 @@
         <v>262.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C46" s="4">
         <v>1007.0</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I46" s="12">
         <v>6.69</v>
@@ -3905,25 +3944,25 @@
         <v>263.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C47" s="4">
         <v>1009.0</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I47" s="12">
         <v>114.97</v>
@@ -3946,16 +3985,16 @@
         <v>264.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C48" s="4">
         <v>1017.0</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>30</v>
@@ -3987,25 +4026,25 @@
         <v>265.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C49" s="4">
         <v>1030.0</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I49" s="12">
         <v>63.95</v>
@@ -4028,25 +4067,25 @@
         <v>266.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C50" s="4">
         <v>1299.0</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I50" s="12">
         <v>243.23</v>
@@ -4069,25 +4108,25 @@
         <v>267.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C51" s="4">
         <v>1008.0</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I51" s="12">
         <v>3555.0</v>
@@ -4110,16 +4149,16 @@
         <v>268.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C52" s="4">
         <v>1023.0</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>21</v>
@@ -4151,16 +4190,16 @@
         <v>269.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C53" s="4">
         <v>1024.0</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>21</v>
@@ -4192,25 +4231,25 @@
         <v>270.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C54" s="4">
         <v>1018.0</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I54" s="12">
         <v>215.0</v>
@@ -4233,16 +4272,16 @@
         <v>271.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C55" s="4">
         <v>1025.0</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>21</v>
@@ -4274,25 +4313,25 @@
         <v>272.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C56" s="4">
         <v>1026.0</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I56" s="12">
         <v>53.86</v>
@@ -4315,25 +4354,25 @@
         <v>273.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C57" s="4">
         <v>1028.0</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I57" s="12">
         <v>64.0</v>
@@ -4356,16 +4395,16 @@
         <v>274.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C58" s="4">
         <v>1046.0</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>30</v>
@@ -4397,19 +4436,19 @@
         <v>275.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C59" s="4">
         <v>1604.0</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>22</v>
@@ -4438,16 +4477,16 @@
         <v>276.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C60" s="4">
         <v>1045.0</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>42</v>
@@ -4476,25 +4515,25 @@
         <v>277.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C61" s="4">
         <v>1048.0</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I61" s="12">
         <v>886.25</v>
@@ -4517,16 +4556,16 @@
         <v>278.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C62" s="4">
         <v>1078.0</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>30</v>
@@ -4558,25 +4597,25 @@
         <v>279.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C63" s="4">
         <v>1413.0</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I63" s="12">
         <v>62.76</v>
@@ -4599,25 +4638,25 @@
         <v>280.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C64" s="4">
         <v>1047.0</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I64" s="12">
         <v>25.44</v>
@@ -4640,25 +4679,25 @@
         <v>281.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C65" s="4">
         <v>1076.0</v>
       </c>
       <c r="D65" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I65" s="12">
         <v>330.0</v>
@@ -4681,25 +4720,25 @@
         <v>282.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C66" s="4">
         <v>1077.0</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I66" s="12">
         <v>104.26</v>
@@ -4722,19 +4761,19 @@
         <v>283.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C67" s="4">
         <v>1079.0</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>43</v>
@@ -4760,16 +4799,16 @@
         <v>284.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C68" s="4">
         <v>1103.0</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>30</v>
@@ -4801,16 +4840,16 @@
         <v>285.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C69" s="4">
         <v>1102.0</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>21</v>
@@ -4842,25 +4881,25 @@
         <v>286.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C70" s="4">
         <v>1104.0</v>
       </c>
       <c r="D70" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>236</v>
-      </c>
       <c r="F70" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I70" s="12">
         <v>99.46</v>
@@ -4883,25 +4922,25 @@
         <v>287.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C71" s="4">
         <v>1117.0</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I71" s="12">
         <v>22.97</v>
@@ -4924,16 +4963,16 @@
         <v>288.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C72" s="4">
         <v>1119.0</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>30</v>
@@ -4965,25 +5004,25 @@
         <v>289.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C73" s="4">
         <v>1120.0</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I73" s="12">
         <v>10.55</v>
@@ -5006,25 +5045,25 @@
         <v>290.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C74" s="4">
         <v>1123.0</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I74" s="12">
         <v>38.3</v>
@@ -5047,25 +5086,25 @@
         <v>291.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C75" s="4">
         <v>1145.0</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I75" s="12">
         <v>13.28</v>
@@ -5088,19 +5127,19 @@
         <v>292.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C76" s="4">
         <v>1146.0</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>43</v>
@@ -5126,16 +5165,16 @@
         <v>293.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C77" s="4">
         <v>1323.0</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>25</v>
@@ -5167,25 +5206,25 @@
         <v>294.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C78" s="4">
         <v>1105.0</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I78" s="12">
         <v>75.0</v>
@@ -5208,25 +5247,25 @@
         <v>295.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C79" s="4">
         <v>1118.0</v>
       </c>
       <c r="D79" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="F79" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I79" s="12">
         <v>59.87</v>
@@ -5249,16 +5288,16 @@
         <v>296.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C80" s="4">
         <v>1121.0</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>25</v>
@@ -5290,16 +5329,16 @@
         <v>297.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C81" s="4">
         <v>1122.0</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>25</v>
@@ -5331,25 +5370,25 @@
         <v>298.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C82" s="4">
         <v>1124.0</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I82" s="12">
         <v>33.1</v>
@@ -5372,16 +5411,16 @@
         <v>299.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C83" s="4">
         <v>1148.0</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>30</v>
@@ -5413,25 +5452,25 @@
         <v>300.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C84" s="4">
         <v>1149.0</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I84" s="12">
         <v>17.07</v>
@@ -5454,25 +5493,25 @@
         <v>301.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C85" s="4">
         <v>1153.0</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I85" s="12">
         <v>8.26</v>
@@ -5495,16 +5534,16 @@
         <v>302.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C86" s="4">
         <v>1322.0</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>25</v>
@@ -5536,16 +5575,16 @@
         <v>303.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C87" s="4">
         <v>1324.0</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>25</v>
@@ -5577,25 +5616,25 @@
         <v>304.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C88" s="4">
         <v>1144.0</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I88" s="12">
         <v>110.69</v>
@@ -5618,19 +5657,19 @@
         <v>305.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C89" s="4">
         <v>1147.0</v>
       </c>
       <c r="D89" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E89" s="11" t="s">
-        <v>284</v>
-      </c>
       <c r="F89" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>43</v>
@@ -5656,16 +5695,16 @@
         <v>306.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C90" s="4">
         <v>1175.0</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>30</v>
@@ -5697,25 +5736,25 @@
         <v>307.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C91" s="4">
         <v>1180.0</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I91" s="12">
         <v>20.31</v>
@@ -5737,23 +5776,26 @@
       <c r="A92" s="4">
         <v>308.0</v>
       </c>
+      <c r="B92" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="C92" s="4">
         <v>1189.0</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I92" s="12">
         <v>543.0</v>
@@ -5775,23 +5817,26 @@
       <c r="A93" s="4">
         <v>309.0</v>
       </c>
+      <c r="B93" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="C93" s="4">
         <v>1190.0</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I93" s="12">
         <v>316.0</v>
@@ -5814,25 +5859,25 @@
         <v>310.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C94" s="4">
         <v>1150.0</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I94" s="12">
         <v>166.5</v>
@@ -5855,25 +5900,25 @@
         <v>311.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C95" s="4">
         <v>1151.0</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I95" s="12">
         <v>9.88</v>
@@ -5896,25 +5941,25 @@
         <v>312.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C96" s="4">
         <v>1152.0</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I96" s="12">
         <v>3.5</v>
@@ -5937,16 +5982,16 @@
         <v>313.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C97" s="4">
         <v>1173.0</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>42</v>
@@ -5975,16 +6020,16 @@
         <v>314.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C98" s="4">
         <v>1174.0</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>21</v>
@@ -6016,25 +6061,25 @@
         <v>315.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C99" s="4">
         <v>1176.0</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I99" s="12">
         <v>138.58</v>
@@ -6057,16 +6102,16 @@
         <v>316.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C100" s="4">
         <v>1178.0</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>16</v>
@@ -6098,25 +6143,25 @@
         <v>317.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C101" s="4">
         <v>1179.0</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I101" s="12">
         <v>52.46</v>
@@ -6139,25 +6184,25 @@
         <v>318.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C102" s="4">
         <v>1193.0</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I102" s="12">
         <v>220.02</v>
@@ -6180,25 +6225,25 @@
         <v>319.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C103" s="4">
         <v>1276.0</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I103" s="12">
         <v>47.39</v>
@@ -6221,25 +6266,25 @@
         <v>320.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C104" s="4">
         <v>1602.0</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I104" s="12">
         <v>334.64</v>
@@ -6262,19 +6307,19 @@
         <v>321.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C105" s="4">
         <v>1191.0</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>43</v>
@@ -6300,25 +6345,25 @@
         <v>322.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C106" s="4">
         <v>1192.0</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I106" s="12">
         <v>716.97</v>
@@ -6341,16 +6386,16 @@
         <v>323.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C107" s="4">
         <v>1205.0</v>
       </c>
       <c r="D107" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>30</v>
@@ -6382,25 +6427,25 @@
         <v>324.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C108" s="4">
         <v>1210.0</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I108" s="12">
         <v>26.05</v>
@@ -6423,25 +6468,25 @@
         <v>325.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C109" s="4">
         <v>1601.0</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E109" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="H109" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I109" s="12">
         <v>343.43</v>
@@ -6464,25 +6509,25 @@
         <v>326.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C110" s="4">
         <v>1603.0</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E110" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="H110" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I110" s="12">
         <v>285.93</v>
@@ -6505,19 +6550,19 @@
         <v>327.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C111" s="4">
         <v>1202.0</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>43</v>
@@ -6543,16 +6588,16 @@
         <v>328.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C112" s="4">
         <v>1203.0</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>21</v>
@@ -6584,25 +6629,25 @@
         <v>329.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C113" s="4">
         <v>1207.0</v>
       </c>
       <c r="D113" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>341</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I113" s="12">
         <v>9.01</v>
@@ -6624,23 +6669,26 @@
       <c r="A114" s="4">
         <v>330.0</v>
       </c>
+      <c r="B114" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="C114" s="4">
         <v>1209.0</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="I114" s="12">
         <v>146.36</v>
@@ -6663,16 +6711,16 @@
         <v>331.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C115" s="4">
         <v>1224.0</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>30</v>
@@ -6704,25 +6752,25 @@
         <v>332.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C116" s="4">
         <v>1227.0</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I116" s="12">
         <v>182.38</v>
@@ -6745,16 +6793,16 @@
         <v>333.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C117" s="4">
         <v>1204.0</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>21</v>
@@ -6786,25 +6834,25 @@
         <v>334.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C118" s="4">
         <v>1206.0</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I118" s="12">
         <v>210.7</v>
@@ -6827,16 +6875,16 @@
         <v>335.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C119" s="4">
         <v>1226.0</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>30</v>
@@ -6868,16 +6916,16 @@
         <v>336.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C120" s="4">
         <v>1228.0</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>16</v>
@@ -6909,25 +6957,25 @@
         <v>337.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C121" s="4">
         <v>1229.0</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I121" s="12">
         <v>170.51</v>
@@ -6949,23 +6997,26 @@
       <c r="A122" s="4">
         <v>338.0</v>
       </c>
+      <c r="B122" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="C122" s="4">
         <v>1230.0</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I122" s="12">
         <v>44.19</v>
@@ -6988,16 +7039,16 @@
         <v>339.0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C123" s="4">
         <v>1277.0</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>30</v>
@@ -7029,25 +7080,25 @@
         <v>340.0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C124" s="4">
         <v>1278.0</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I124" s="12">
         <v>69.02</v>
@@ -7070,25 +7121,25 @@
         <v>341.0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C125" s="4">
         <v>1279.0</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I125" s="12">
         <v>10.74</v>
@@ -7110,23 +7161,26 @@
       <c r="A126" s="4">
         <v>342.0</v>
       </c>
+      <c r="B126" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="C126" s="4">
         <v>1297.0</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="I126" s="12">
         <v>61.98</v>
@@ -7149,25 +7203,25 @@
         <v>343.0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C127" s="4">
         <v>1294.0</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I127" s="12">
         <v>15.12</v>
@@ -7190,16 +7244,16 @@
         <v>344.0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C128" s="4">
         <v>1270.0</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>21</v>
@@ -7231,25 +7285,25 @@
         <v>345.0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C129" s="4">
         <v>1275.0</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I129" s="12">
         <v>129.9</v>
@@ -7272,25 +7326,25 @@
         <v>346.0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C130" s="4">
         <v>1280.0</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I130" s="12">
         <v>444.78</v>
@@ -7313,25 +7367,25 @@
         <v>347.0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C131" s="4">
         <v>1281.0</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I131" s="12">
         <v>30.81</v>
@@ -7354,16 +7408,16 @@
         <v>348.0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C132" s="4">
         <v>1298.0</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>30</v>
@@ -7395,25 +7449,25 @@
         <v>349.0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C133" s="4">
         <v>1300.0</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I133" s="12">
         <v>113.22</v>
@@ -7436,16 +7490,16 @@
         <v>350.0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C134" s="4">
         <v>1366.0</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>21</v>
@@ -7477,19 +7531,19 @@
         <v>351.0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C135" s="4">
         <v>1411.0</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>43</v>
@@ -7515,25 +7569,25 @@
         <v>352.0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C136" s="4">
         <v>1471.0</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="I136" s="12">
         <v>202.25</v>
@@ -7556,25 +7610,25 @@
         <v>353.0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C137" s="4">
         <v>1600.0</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I137" s="12">
         <v>404.53</v>
@@ -7597,19 +7651,19 @@
         <v>354.0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C138" s="4">
         <v>1295.0</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>43</v>
@@ -7635,16 +7689,16 @@
         <v>355.0</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C139" s="4">
         <v>1296.0</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>21</v>
@@ -7676,25 +7730,25 @@
         <v>356.0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C140" s="4">
         <v>1301.0</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="I140" s="12">
         <v>115.55</v>
@@ -7717,25 +7771,25 @@
         <v>357.0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C141" s="4">
         <v>1302.0</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="I141" s="12">
         <v>188.29</v>
@@ -7758,16 +7812,16 @@
         <v>358.0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C142" s="4">
         <v>1304.0</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>16</v>
@@ -7799,16 +7853,16 @@
         <v>359.0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C143" s="4">
         <v>1305.0</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>16</v>
@@ -7840,16 +7894,16 @@
         <v>360.0</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C144" s="4">
         <v>1306.0</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>16</v>
@@ -7881,16 +7935,16 @@
         <v>361.0</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C145" s="4">
         <v>1307.0</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>16</v>
@@ -7922,16 +7976,16 @@
         <v>362.0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C146" s="4">
         <v>1308.0</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>16</v>
@@ -7963,16 +8017,16 @@
         <v>363.0</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C147" s="4">
         <v>1309.0</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>16</v>
@@ -8004,16 +8058,16 @@
         <v>364.0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C148" s="4">
         <v>1310.0</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>16</v>
@@ -8045,25 +8099,25 @@
         <v>365.0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C149" s="4">
         <v>1311.0</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="I149" s="12">
         <v>1519.14</v>
@@ -8086,25 +8140,25 @@
         <v>366.0</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C150" s="4">
         <v>1312.0</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="I150" s="12">
         <v>2448.2</v>
@@ -8127,25 +8181,25 @@
         <v>367.0</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C151" s="4">
         <v>1313.0</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="I151" s="12">
         <v>608.85</v>
@@ -8168,25 +8222,25 @@
         <v>368.0</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C152" s="4">
         <v>1314.0</v>
       </c>
       <c r="D152" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>434</v>
-      </c>
       <c r="G152" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="I152" s="12">
         <v>1277.3</v>
@@ -8209,25 +8263,25 @@
         <v>369.0</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C153" s="4">
         <v>1315.0</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="I153" s="12">
         <v>1176.4</v>
@@ -8250,25 +8304,25 @@
         <v>370.0</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C154" s="4">
         <v>1316.0</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="I154" s="12">
         <v>2410.81</v>
@@ -8291,25 +8345,25 @@
         <v>371.0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C155" s="4">
         <v>1317.0</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="I155" s="12">
         <v>396.07</v>
@@ -8332,25 +8386,25 @@
         <v>372.0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C156" s="4">
         <v>1318.0</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="I156" s="12">
         <v>37.01</v>
@@ -8373,25 +8427,25 @@
         <v>373.0</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C157" s="4">
         <v>1319.0</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="I157" s="12">
         <v>37.01</v>
@@ -8414,25 +8468,25 @@
         <v>374.0</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C158" s="4">
         <v>1320.0</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I158" s="12">
         <v>52.37</v>
@@ -8455,25 +8509,25 @@
         <v>375.0</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C159" s="4">
         <v>1321.0</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I159" s="12">
         <v>9.96</v>
@@ -8496,16 +8550,16 @@
         <v>376.0</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C160" s="4">
         <v>1339.0</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>30</v>
@@ -8537,25 +8591,25 @@
         <v>377.0</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C161" s="4">
         <v>1341.0</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I161" s="12">
         <v>9.08</v>
@@ -8578,25 +8632,25 @@
         <v>378.0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C162" s="4">
         <v>1347.0</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="I162" s="12">
         <v>37.18</v>
@@ -8619,25 +8673,25 @@
         <v>379.0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C163" s="4">
         <v>1400.0</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="I163" s="12">
         <v>17.84</v>
@@ -8660,25 +8714,25 @@
         <v>380.0</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C164" s="4">
         <v>1412.0</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I164" s="12">
         <v>62.58</v>
@@ -8701,25 +8755,25 @@
         <v>381.0</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C165" s="4">
         <v>1560.0</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="I165" s="12">
         <v>24.0</v>
@@ -8741,23 +8795,26 @@
       <c r="A166" s="4">
         <v>382.0</v>
       </c>
+      <c r="B166" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="C166" s="4">
         <v>1568.0</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="I166" s="12">
         <v>97.95</v>
@@ -8780,25 +8837,25 @@
         <v>383.0</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C167" s="4">
         <v>1346.0</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="I167" s="12">
         <v>279.71</v>
@@ -8821,25 +8878,25 @@
         <v>384.0</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C168" s="4">
         <v>1340.0</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I168" s="12">
         <v>147.46</v>
@@ -8862,25 +8919,25 @@
         <v>385.0</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C169" s="4">
         <v>1342.0</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="I169" s="12">
         <v>39.99</v>
@@ -8903,16 +8960,16 @@
         <v>386.0</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C170" s="4">
         <v>1344.0</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>25</v>
@@ -8944,25 +9001,25 @@
         <v>387.0</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C171" s="4">
         <v>1345.0</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="I171" s="12">
         <v>87.92</v>
@@ -8985,25 +9042,25 @@
         <v>388.0</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C172" s="4">
         <v>1359.0</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="I172" s="12">
         <v>-37.18</v>
@@ -9026,25 +9083,25 @@
         <v>389.0</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C173" s="4">
         <v>1360.0</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I173" s="12">
         <v>-15.12</v>
@@ -9067,25 +9124,25 @@
         <v>390.0</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C174" s="4">
         <v>1399.0</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I174" s="12">
         <v>15.66</v>
@@ -9108,19 +9165,19 @@
         <v>391.0</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C175" s="4">
         <v>1410.0</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>43</v>
@@ -9146,25 +9203,25 @@
         <v>392.0</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C176" s="4">
         <v>1599.0</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I176" s="12">
         <v>1135.03</v>
@@ -9187,25 +9244,25 @@
         <v>393.0</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C177" s="4">
         <v>1343.0</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="I177" s="12">
         <v>41.56</v>
@@ -9228,16 +9285,16 @@
         <v>394.0</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C178" s="4">
         <v>1367.0</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>21</v>
@@ -9269,16 +9326,16 @@
         <v>395.0</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C179" s="4">
         <v>1368.0</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>21</v>
@@ -9310,25 +9367,25 @@
         <v>396.0</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C180" s="4">
         <v>1369.0</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I180" s="12">
         <v>270.0</v>
@@ -9351,25 +9408,25 @@
         <v>397.0</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C181" s="4">
         <v>1370.0</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="I181" s="12">
         <v>34.02</v>
@@ -9392,25 +9449,25 @@
         <v>398.0</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C182" s="4">
         <v>1371.0</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="I182" s="12">
         <v>41.62</v>
@@ -9433,25 +9490,25 @@
         <v>399.0</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C183" s="4">
         <v>1372.0</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I183" s="12">
         <v>1579.54</v>
@@ -9474,16 +9531,16 @@
         <v>400.0</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C184" s="4">
         <v>1373.0</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>25</v>
@@ -9515,16 +9572,16 @@
         <v>401.0</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C185" s="4">
         <v>1374.0</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>25</v>
@@ -9556,25 +9613,25 @@
         <v>402.0</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C186" s="4">
         <v>1401.0</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="I186" s="12">
         <v>25.73</v>
@@ -9597,25 +9654,25 @@
         <v>403.0</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C187" s="4">
         <v>1402.0</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="I187" s="12">
         <v>61.0</v>
@@ -9638,16 +9695,16 @@
         <v>404.0</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C188" s="4">
         <v>1403.0</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>30</v>
@@ -9679,25 +9736,25 @@
         <v>405.0</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C189" s="4">
         <v>1414.0</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I189" s="12">
         <v>22.31</v>
@@ -9720,25 +9777,25 @@
         <v>406.0</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C190" s="4">
         <v>1417.0</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I190" s="12">
         <v>26.61</v>
@@ -9760,23 +9817,26 @@
       <c r="A191" s="4">
         <v>407.0</v>
       </c>
+      <c r="B191" s="5" t="s">
+        <v>551</v>
+      </c>
       <c r="C191" s="4">
         <v>1466.0</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="I191" s="12">
         <v>1634.25</v>
@@ -9799,25 +9859,25 @@
         <v>408.0</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="C192" s="4">
         <v>1470.0</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I192" s="12">
         <v>19.18</v>
@@ -9840,25 +9900,25 @@
         <v>409.0</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="C193" s="4">
         <v>1580.0</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="I193" s="12">
         <v>1609.24</v>
@@ -9880,23 +9940,26 @@
       <c r="A194" s="4">
         <v>410.0</v>
       </c>
+      <c r="B194" s="5" t="s">
+        <v>563</v>
+      </c>
       <c r="C194" s="4">
         <v>1583.0</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="I194" s="12">
         <v>1294.03</v>
@@ -9918,29 +9981,32 @@
       <c r="A195" s="4">
         <v>411.0</v>
       </c>
+      <c r="B195" s="5" t="s">
+        <v>568</v>
+      </c>
       <c r="C195" s="4">
         <v>1584.0</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="I195" s="12">
         <v>292.19</v>
       </c>
       <c r="J195" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K195" s="12">
         <v>0.0</v>
